--- a/biology/Botanique/Œnanthe_(plante)/Œnanthe_(plante).xlsx
+++ b/biology/Botanique/Œnanthe_(plante)/Œnanthe_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_(plante)</t>
+          <t>Œnanthe_(plante)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oenanthe
 Les Œnanthes (Oenanthe) sont un genre de plantes herbacées, la plupart toxiques, de la famille des Apiaceae, comprenant des espèces de l'hémisphère nord tempéré (dont une douzaine environ en Europe), de la zone indomalaise, d'Australie et d'Afrique tropicale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_(plante)</t>
+          <t>Œnanthe_(plante)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principales espèces en français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Œnanthe aquatique - Oenanthe aquatica
 Œnanthe faux boucage - Oenanthe pimpinelloides
@@ -521,7 +535,7 @@
 Œnanthe fistuleuse - Oenanthe fistulosa
 Œnanthe des fleuves - Oenanthe fluviatilis
 Œnanthe de Lachenal - Oenanthe lachenalii
-Œnanthe phellandre - cf. Œnanthe aquatique[2]
+Œnanthe phellandre - cf. Œnanthe aquatique
 Œnanthe safranée - Oenanthe crocata</t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_(plante)</t>
+          <t>Œnanthe_(plante)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des espèces du genre Oenanthe sont toxiques, voire mortelles, par ingestion et compte tenu de leur ressemblance avec des espèces comestibles, le risque de confusion est important[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces du genre Oenanthe sont toxiques, voire mortelles, par ingestion et compte tenu de leur ressemblance avec des espèces comestibles, le risque de confusion est important.
 L'œnanthe aurait pour effet de faire sourire sa victime à sa mort (pour les toxiques telle l'œnanthe safranée) probablement à la suite d'un spasme musculaire (voir rire sardonique).
 </t>
         </is>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92nanthe_(plante)</t>
+          <t>Œnanthe_(plante)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (3 juillet 2020)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (3 juillet 2020) :
 Oenanthe aquatica (L.) Lam.
 Oenanthe crocata L.
 Oenanthe fistulosa L.
@@ -595,7 +613,7 @@
 Oenanthe sarmentosa C. Presl ex DC.
 Oenanthe silaifolia M. Bieb.
 Oenanthe virgata Poir.
-Selon Tropicos                                           (3 juillet 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 juillet 2020) (Attention liste brute contenant possiblement des synonymes) :
 Oenanthe abchasica Schischk.
 Oenanthe alatinervis Y.Y. Qian
 Oenanthe ambigua Nutt.
